--- a/src/test/resources/testdata/StcTestData.xlsx
+++ b/src/test/resources/testdata/StcTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anishkumar\eclipse-workspacePoc\Web_HybridFrameworkPOC\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB1629D-9821-4F19-84B7-472183B4B7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87040FBF-C092-4B01-9625-D23E11130ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,10 +130,10 @@
     <t>PostPaidLoginFour</t>
   </si>
   <si>
-    <t>0000000.</t>
-  </si>
-  <si>
     <t>PostPaidNumberTwo</t>
+  </si>
+  <si>
+    <t>50012026.</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,7 +199,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +420,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -488,7 +487,7 @@
       <c r="B5" s="1">
         <v>50012053</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -626,13 +625,13 @@
       <c r="B20" s="1">
         <v>50012026</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>36</v>
+      <c r="C20" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1">
         <v>50012053</v>
